--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H2">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I2">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J2">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N2">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O2">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P2">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q2">
-        <v>19.01507263589179</v>
+        <v>21.15439686897444</v>
       </c>
       <c r="R2">
-        <v>19.01507263589179</v>
+        <v>190.38957182077</v>
       </c>
       <c r="S2">
-        <v>0.04466575439217532</v>
+        <v>0.04459183138711983</v>
       </c>
       <c r="T2">
-        <v>0.04466575439217532</v>
+        <v>0.05452734246319777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H3">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I3">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J3">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N3">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P3">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q3">
-        <v>41.4349931035267</v>
+        <v>47.6946272704261</v>
       </c>
       <c r="R3">
-        <v>41.4349931035267</v>
+        <v>429.251645433835</v>
       </c>
       <c r="S3">
-        <v>0.0973293797316491</v>
+        <v>0.1005365830322287</v>
       </c>
       <c r="T3">
-        <v>0.0973293797316491</v>
+        <v>0.1229371506518009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H4">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I4">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J4">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N4">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O4">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P4">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q4">
-        <v>7.366290057489534</v>
+        <v>9.550946570032778</v>
       </c>
       <c r="R4">
-        <v>7.366290057489534</v>
+        <v>85.95851913029499</v>
       </c>
       <c r="S4">
-        <v>0.01730316306382701</v>
+        <v>0.02013265618850703</v>
       </c>
       <c r="T4">
-        <v>0.01730316306382701</v>
+        <v>0.02461841562761268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H5">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I5">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J5">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N5">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O5">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P5">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q5">
-        <v>11.25449913935641</v>
+        <v>12.30355911013055</v>
       </c>
       <c r="R5">
-        <v>11.25449913935641</v>
+        <v>110.732031991175</v>
       </c>
       <c r="S5">
-        <v>0.02643643303347635</v>
+        <v>0.02593495038873219</v>
       </c>
       <c r="T5">
-        <v>0.02643643303347635</v>
+        <v>0.03171351966541835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48112763336477</v>
+        <v>1.614468333333333</v>
       </c>
       <c r="H6">
-        <v>1.48112763336477</v>
+        <v>4.843405</v>
       </c>
       <c r="I6">
-        <v>0.2139865259507539</v>
+        <v>0.2189358375003605</v>
       </c>
       <c r="J6">
-        <v>0.2139865259507539</v>
+        <v>0.2564101138793464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N6">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O6">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P6">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q6">
-        <v>12.02733403261016</v>
+        <v>13.15978889269917</v>
       </c>
       <c r="R6">
-        <v>12.02733403261016</v>
+        <v>78.958733356195</v>
       </c>
       <c r="S6">
-        <v>0.02825179572962606</v>
+        <v>0.02773981650377265</v>
       </c>
       <c r="T6">
-        <v>0.02825179572962606</v>
+        <v>0.02261368547131674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H7">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J7">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N7">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O7">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P7">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q7">
-        <v>28.45184980856325</v>
+        <v>30.64249702362245</v>
       </c>
       <c r="R7">
-        <v>28.45184980856325</v>
+        <v>275.782473212602</v>
       </c>
       <c r="S7">
-        <v>0.06683242077937748</v>
+        <v>0.06459201219589941</v>
       </c>
       <c r="T7">
-        <v>0.06683242077937748</v>
+        <v>0.0789837658565012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H8">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J8">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N8">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P8">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q8">
-        <v>61.99830119897443</v>
+        <v>69.08646383203011</v>
       </c>
       <c r="R8">
-        <v>61.99830119897443</v>
+        <v>621.778174488271</v>
       </c>
       <c r="S8">
-        <v>0.1456318861942452</v>
+        <v>0.1456289189151244</v>
       </c>
       <c r="T8">
-        <v>0.1456318861942452</v>
+        <v>0.1780765150749987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H9">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J9">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N9">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O9">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P9">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q9">
-        <v>11.02202354811966</v>
+        <v>13.83470555354078</v>
       </c>
       <c r="R9">
-        <v>11.02202354811966</v>
+        <v>124.512349981867</v>
       </c>
       <c r="S9">
-        <v>0.02589035583150149</v>
+        <v>0.02916248859066851</v>
       </c>
       <c r="T9">
-        <v>0.02589035583150149</v>
+        <v>0.03566018602505274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H10">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J10">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N10">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O10">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P10">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q10">
-        <v>16.8398683147368</v>
+        <v>17.82191077095055</v>
       </c>
       <c r="R10">
-        <v>16.8398683147368</v>
+        <v>160.397196938555</v>
       </c>
       <c r="S10">
-        <v>0.03955627393833163</v>
+        <v>0.03756720860522691</v>
       </c>
       <c r="T10">
-        <v>0.03955627393833163</v>
+        <v>0.0459375626719669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.21617985788098</v>
+        <v>2.338584333333333</v>
       </c>
       <c r="H11">
-        <v>2.21617985788098</v>
+        <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3201834993738132</v>
+        <v>0.3171322156108495</v>
       </c>
       <c r="J11">
-        <v>0.3201834993738132</v>
+        <v>0.37141433055451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N11">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O11">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P11">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q11">
-        <v>17.99624477096808</v>
+        <v>19.06217390520117</v>
       </c>
       <c r="R11">
-        <v>17.99624477096808</v>
+        <v>114.373043431207</v>
       </c>
       <c r="S11">
-        <v>0.04227256263035732</v>
+        <v>0.04018158730393029</v>
       </c>
       <c r="T11">
-        <v>0.04227256263035732</v>
+        <v>0.03275630092599047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H12">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I12">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J12">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N12">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O12">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P12">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q12">
-        <v>41.39415210875235</v>
+        <v>2.462230536351111</v>
       </c>
       <c r="R12">
-        <v>41.39415210875235</v>
+        <v>22.16007482716</v>
       </c>
       <c r="S12">
-        <v>0.0972334456336494</v>
+        <v>0.005190191410004932</v>
       </c>
       <c r="T12">
-        <v>0.0972334456336494</v>
+        <v>0.006346618554550593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H13">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I13">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J13">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N13">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P13">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q13">
-        <v>90.20036052426308</v>
+        <v>5.551336131797778</v>
       </c>
       <c r="R13">
-        <v>90.20036052426308</v>
+        <v>49.96202518618</v>
       </c>
       <c r="S13">
-        <v>0.2118775576832526</v>
+        <v>0.01170178692853243</v>
       </c>
       <c r="T13">
-        <v>0.2118775576832526</v>
+        <v>0.01430906341890596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H14">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I14">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J14">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N14">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O14">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P14">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q14">
-        <v>16.03576998919054</v>
+        <v>1.111666403984445</v>
       </c>
       <c r="R14">
-        <v>16.03576998919054</v>
+        <v>10.00499763586</v>
       </c>
       <c r="S14">
-        <v>0.03766747451043904</v>
+        <v>0.002343306743852508</v>
       </c>
       <c r="T14">
-        <v>0.03766747451043904</v>
+        <v>0.002865419188754683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.22428547720887</v>
+        <v>0.1879133333333333</v>
       </c>
       <c r="H15">
-        <v>3.22428547720887</v>
+        <v>0.56374</v>
       </c>
       <c r="I15">
-        <v>0.4658299746754329</v>
+        <v>0.0254826695336139</v>
       </c>
       <c r="J15">
-        <v>0.4658299746754329</v>
+        <v>0.02984442506838532</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N15">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O15">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P15">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q15">
-        <v>24.50006151451615</v>
+        <v>1.432052122988889</v>
       </c>
       <c r="R15">
-        <v>24.50006151451615</v>
+        <v>12.8884691069</v>
       </c>
       <c r="S15">
-        <v>0.0575498054177821</v>
+        <v>0.003018655043743789</v>
       </c>
       <c r="T15">
-        <v>0.0575498054177821</v>
+        <v>0.003691241920959108</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1879133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.56374</v>
+      </c>
+      <c r="I16">
+        <v>0.0254826695336139</v>
+      </c>
+      <c r="J16">
+        <v>0.02984442506838532</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.1511595</v>
+      </c>
+      <c r="N16">
+        <v>16.302319</v>
+      </c>
+      <c r="O16">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P16">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q16">
+        <v>1.531711552176667</v>
+      </c>
+      <c r="R16">
+        <v>9.19026931306</v>
+      </c>
+      <c r="S16">
+        <v>0.003228729407480232</v>
+      </c>
+      <c r="T16">
+        <v>0.002632081985214967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.233196</v>
+      </c>
+      <c r="H17">
+        <v>6.466392</v>
+      </c>
+      <c r="I17">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J17">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N17">
+        <v>39.309034</v>
+      </c>
+      <c r="O17">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P17">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q17">
+        <v>42.364603830888</v>
+      </c>
+      <c r="R17">
+        <v>254.187622985328</v>
+      </c>
+      <c r="S17">
+        <v>0.08930130613081726</v>
+      </c>
+      <c r="T17">
+        <v>0.07279902694184823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.233196</v>
+      </c>
+      <c r="H18">
+        <v>6.466392</v>
+      </c>
+      <c r="I18">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J18">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N18">
+        <v>88.626007</v>
+      </c>
+      <c r="O18">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P18">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q18">
+        <v>95.515083776124</v>
+      </c>
+      <c r="R18">
+        <v>573.090502656744</v>
+      </c>
+      <c r="S18">
+        <v>0.2013384043540463</v>
+      </c>
+      <c r="T18">
+        <v>0.1641324249113175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.233196</v>
+      </c>
+      <c r="H19">
+        <v>6.466392</v>
+      </c>
+      <c r="I19">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J19">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N19">
+        <v>17.747539</v>
+      </c>
+      <c r="O19">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P19">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q19">
+        <v>19.127090701548</v>
+      </c>
+      <c r="R19">
+        <v>114.762544209288</v>
+      </c>
+      <c r="S19">
+        <v>0.04031842688649175</v>
+      </c>
+      <c r="T19">
+        <v>0.03286785347644264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="H16">
-        <v>3.22428547720887</v>
-      </c>
-      <c r="I16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="J16">
-        <v>0.4658299746754329</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="N16">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="O16">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="P16">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="Q16">
-        <v>26.18245556784799</v>
-      </c>
-      <c r="R16">
-        <v>26.18245556784799</v>
-      </c>
-      <c r="S16">
-        <v>0.06150169143030964</v>
-      </c>
-      <c r="T16">
-        <v>0.06150169143030964</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.233196</v>
+      </c>
+      <c r="H20">
+        <v>6.466392</v>
+      </c>
+      <c r="I20">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J20">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N20">
+        <v>22.862435</v>
+      </c>
+      <c r="O20">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P20">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q20">
+        <v>24.63957779742</v>
+      </c>
+      <c r="R20">
+        <v>147.83746678452</v>
+      </c>
+      <c r="S20">
+        <v>0.05193832305395525</v>
+      </c>
+      <c r="T20">
+        <v>0.04234047118841062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.233196</v>
+      </c>
+      <c r="H21">
+        <v>6.466392</v>
+      </c>
+      <c r="I21">
+        <v>0.4384492773551761</v>
+      </c>
+      <c r="J21">
+        <v>0.3423311304977583</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.1511595</v>
+      </c>
+      <c r="N21">
+        <v>16.302319</v>
+      </c>
+      <c r="O21">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P21">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q21">
+        <v>26.354296290762</v>
+      </c>
+      <c r="R21">
+        <v>105.417185163048</v>
+      </c>
+      <c r="S21">
+        <v>0.05555281692986548</v>
+      </c>
+      <c r="T21">
+        <v>0.03019135397973921</v>
       </c>
     </row>
   </sheetData>
